--- a/ExcelData/testDataLogin.xlsx
+++ b/ExcelData/testDataLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramkoushikreddy/IdeaProjects/ECS Automation/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E79BF71-77DE-8D4F-8EF2-591DFE57D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C174279-9D57-0242-A2E9-06030EFAC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>user1</t>
   </si>
   <si>
-    <t>user2</t>
-  </si>
-  <si>
     <t>user3</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>pass1</t>
   </si>
   <si>
-    <t>pass2</t>
-  </si>
-  <si>
     <t>pass3</t>
   </si>
   <si>
@@ -326,13 +320,19 @@
   </si>
   <si>
     <t>pass50</t>
+  </si>
+  <si>
+    <t>globexcorporation@walk999.co.uk</t>
+  </si>
+  <si>
+    <t>Test@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +344,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,16 +389,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,9 +706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -712,402 +728,406 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{B976A495-6817-E74D-BAEF-FAFC6D65D6AD}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C2D3ED8C-98EF-B84B-96C8-0855A8FBD9C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>